--- a/OnboardingTest2/OnboardingTest2/ExcelData/TestData.xlsx
+++ b/OnboardingTest2/OnboardingTest2/ExcelData/TestData.xlsx
@@ -1,86 +1,197 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OnboardingTest2\OnBoardingTask2\OnboardingTest2\OnboardingTest2\ExcelData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153BE645-9800-4ABA-9EDB-240077886098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9440" yWindow="2050" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27930" windowHeight="17180"/>
   </bookViews>
   <sheets>
-    <sheet name="SignIn" sheetId="1" r:id="rId1"/>
-    <sheet name="SignUp" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Username</t>
+    <t>Emailaddress</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>451075672@qq.com</t>
+    <t>45107567@qq.com</t>
   </si>
   <si>
     <t>abc123</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>ConfirmPswd</t>
-  </si>
-  <si>
-    <t>Eddie</t>
-  </si>
-  <si>
-    <t>He</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,12 +200,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -102,35 +399,335 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -417,23 +1014,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="33.1796875" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -445,79 +1040,15 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" tooltip="mailto:451075672@qq.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="27.08984375" customWidth="1"/>
-    <col min="4" max="4" width="24.08984375" customWidth="1"/>
-    <col min="5" max="5" width="25.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" tooltip="mailto:451075672@qq.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/OnboardingTest2/OnboardingTest2/ExcelData/TestData.xlsx
+++ b/OnboardingTest2/OnboardingTest2/ExcelData/TestData.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27930" windowHeight="17180"/>
+    <workbookView windowWidth="19200" windowHeight="17780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
+    <sheet name="ManageListing" sheetId="3" r:id="rId2"/>
+    <sheet name="ShareSkill" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Emailaddress</t>
   </si>
@@ -22,21 +24,53 @@
     <t>Password</t>
   </si>
   <si>
-    <t>45107567@qq.com</t>
+    <t>451075672@qq.com</t>
   </si>
   <si>
     <t>abc123</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Deleteaction</t>
+  </si>
+  <si>
+    <t>Jazz</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>SKTag</t>
+  </si>
+  <si>
+    <t>Jazz Club</t>
+  </si>
+  <si>
+    <t>We are true Jazz lover, If you are intrested in Jazz please feel free to join us!!</t>
+  </si>
+  <si>
+    <t>Photo Skill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="hh:mm:ss;@"/>
+    <numFmt numFmtId="177" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -662,11 +696,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1022,8 +1065,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1032,20 +1075,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="92.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="17.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="6" width="11.8181818181818" customWidth="1"/>
+    <col min="7" max="8" width="10.6363636363636" customWidth="1"/>
+    <col min="10" max="10" width="16.2727272727273" customWidth="1"/>
+    <col min="11" max="11" width="21.9090909090909" customWidth="1"/>
+    <col min="12" max="12" width="7.54545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
